--- a/resources/ExcelsheetData/QuickCartData/FileUploadTestData.xlsx
+++ b/resources/ExcelsheetData/QuickCartData/FileUploadTestData.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,49 +560,31 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -610,256 +592,160 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ExcelsheetData/QuickCartData/FileUploadTestData.xlsx
+++ b/resources/ExcelsheetData/QuickCartData/FileUploadTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -38,125 +38,38 @@
     <t>Site Part No</t>
   </si>
   <si>
-    <t>39015</t>
-  </si>
-  <si>
-    <t>7907</t>
-  </si>
-  <si>
-    <t>73189</t>
-  </si>
-  <si>
-    <t>102914</t>
-  </si>
-  <si>
-    <t>7645</t>
-  </si>
-  <si>
-    <t>82832</t>
-  </si>
-  <si>
-    <t>74999</t>
-  </si>
-  <si>
-    <t>5202</t>
-  </si>
-  <si>
-    <t>7260</t>
-  </si>
-  <si>
-    <t>59168</t>
-  </si>
-  <si>
-    <t>77545</t>
-  </si>
-  <si>
-    <t>2576</t>
-  </si>
-  <si>
-    <t>6173</t>
-  </si>
-  <si>
-    <t>88349</t>
-  </si>
-  <si>
-    <t>28014</t>
-  </si>
-  <si>
-    <t>78968</t>
-  </si>
-  <si>
-    <t>59555</t>
-  </si>
-  <si>
-    <t>29381</t>
-  </si>
-  <si>
-    <t>34590</t>
-  </si>
-  <si>
-    <t>79814</t>
-  </si>
-  <si>
-    <t>100236</t>
-  </si>
-  <si>
-    <t>71564</t>
-  </si>
-  <si>
-    <t>78458</t>
-  </si>
-  <si>
-    <t>53828</t>
-  </si>
-  <si>
-    <t>99667</t>
-  </si>
-  <si>
-    <t>106332</t>
-  </si>
-  <si>
-    <t>26366</t>
-  </si>
-  <si>
-    <t>27766</t>
-  </si>
-  <si>
-    <t>82720</t>
-  </si>
-  <si>
-    <t>80986</t>
-  </si>
-  <si>
-    <t>85328</t>
-  </si>
-  <si>
-    <t>35876</t>
-  </si>
-  <si>
-    <t>76508</t>
-  </si>
-  <si>
-    <t>98547</t>
-  </si>
-  <si>
-    <t>87112</t>
-  </si>
-  <si>
-    <t>7063</t>
-  </si>
-  <si>
-    <t>86000</t>
-  </si>
-  <si>
-    <t>9156</t>
+    <t>BH26520-ORB</t>
+  </si>
+  <si>
+    <t>BH26540-BBZ</t>
+  </si>
+  <si>
+    <t>BH26517-ORB</t>
+  </si>
+  <si>
+    <t>BH26532-G10</t>
+  </si>
+  <si>
+    <t>BH26522-ORB</t>
+  </si>
+  <si>
+    <t>H55457-26</t>
+  </si>
+  <si>
+    <t>BH26512-ORB</t>
+  </si>
+  <si>
+    <t>BH26502-26</t>
+  </si>
+  <si>
+    <t>Testing purpose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +98,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,21 +115,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,212 +462,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1">
+        <v>10423</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
+      <c r="A11" s="1">
+        <v>10428</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>42</v>
+      <c r="A12" s="1">
+        <v>98503</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
